--- a/templates/dataplant/MIAPPE_-_Observation_unit_and_sample.xlsx
+++ b/templates/dataplant/MIAPPE_-_Observation_unit_and_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF6F45-0E49-4458-98A7-DA24CCE97185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D1023A-98C2-4348-B966-D133C1A758DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7E9CD3DF-E2E8-475D-95F1-31F0DF9DBD6D}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7E9CD3DF-E2E8-475D-95F1-31F0DF9DBD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_unit_sample" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
     <t>MIAPPE:0069</t>
   </si>
   <si>
-    <t>MIAPPE - observation unit and sample</t>
+    <t>MIAPPE - Observation unit and sample</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/templates/dataplant/MIAPPE_-_Observation_unit_and_sample.xlsx
+++ b/templates/dataplant/MIAPPE_-_Observation_unit_and_sample.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D1023A-98C2-4348-B966-D133C1A758DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F73EFD-FD7D-476F-B03F-E5A105AA3C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7E9CD3DF-E2E8-475D-95F1-31F0DF9DBD6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7E9CD3DF-E2E8-475D-95F1-31F0DF9DBD6D}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_unit_sample" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
